--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameer.zain\Downloads\APAC_TX_IND_EFile_Performer-main (1)\APAC_TX_IND_EFile_Performer-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1D71C-915B-4FB5-BC03-3B1048D588C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0182361-AEB6-4FB0-A94A-ACCE9ABBCEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -202,13 +202,19 @@
   </si>
   <si>
     <t>\AppData\Local\Programs\ITDe-Filing-2023\ITDe-Filing-2023.exe</t>
+  </si>
+  <si>
+    <t>Data Source=ZIPIIACEWVP001;Initial Catalog=TAX;Persist Security Info=True;User ID=zipiiacewvp001-sqladmin;Password=MkW$&gt;fp}_oHyDhH3;Encrypt=False</t>
+  </si>
+  <si>
+    <t>Database_Connection_String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,6 +250,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -767,7 +782,12 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B16" s="6"/>
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1762,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2926,7 +2946,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameer.zain\Downloads\APAC_TX_IND_EFile_Performer-main (1)\APAC_TX_IND_EFile_Performer-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0182361-AEB6-4FB0-A94A-ACCE9ABBCEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E961DE79-DF15-44B8-9C7E-7B958AD52A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -204,10 +204,22 @@
     <t>\AppData\Local\Programs\ITDe-Filing-2023\ITDe-Filing-2023.exe</t>
   </si>
   <si>
-    <t>Data Source=ZIPIIACEWVP001;Initial Catalog=TAX;Persist Security Info=True;User ID=zipiiacewvp001-sqladmin;Password=MkW$&gt;fp}_oHyDhH3;Encrypt=False</t>
-  </si>
-  <si>
     <t>Database_Connection_String</t>
+  </si>
+  <si>
+    <t>APAC_TX_IND</t>
+  </si>
+  <si>
+    <t>Sender_Name_SMTP</t>
+  </si>
+  <si>
+    <t>Sender_From_SMTP</t>
+  </si>
+  <si>
+    <t>gbl_vialto_rpa_prod@e.vialto.com</t>
+  </si>
+  <si>
+    <t>Data Source=ZIPIIACEWVP001;Initial Catalog=TAX;Persist Security Info=True;User ID=zipiiacewvp001-sqladmin;Password=MkW$&gt;fp}_oHyDhH3;Connect Timeout=90;Encrypt=False</t>
   </si>
 </sst>
 </file>
@@ -641,7 +653,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -783,28 +795,42 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
